--- a/xlsx/流行文化_intext.xlsx
+++ b/xlsx/流行文化_intext.xlsx
@@ -29,7 +29,7 @@
     <t>文化</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_流行文化</t>
+    <t>政策_政策_维基百科_流行文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%B3%E6%B3%95</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>傳媒</t>
+    <t>传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%84%E5%BD%B1</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>電視</t>
+    <t>电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>媒體</t>
+    <t>媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>大眾傳媒</t>
+    <t>大众传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E9%81%93%E9%87%91%E6%96%AF</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>進化論</t>
+    <t>进化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E7%BE%8E%E5%B0%94</t>
@@ -155,31 +155,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>可口可樂</t>
+    <t>可口可乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%B3%93%E5%A1%9E</t>
   </si>
   <si>
-    <t>史賓塞</t>
+    <t>史宾塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%B0%C2%B7%E5%B7%B4%E7%89%B9</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
   </si>
   <si>
-    <t>阿多諾</t>
+    <t>阿多诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>文化工業</t>
+    <t>文化工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E6%96%87%E6%80%A7</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>消費主義</t>
+    <t>消费主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/superficiality</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>傳播媒體</t>
+    <t>传播媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%9B%BE%E6%A0%87</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%B0%9A%E6%BD%AE%E6%B5%81</t>
   </si>
   <si>
-    <t>時尚潮流</t>
+    <t>时尚潮流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%85%E6%96%87%E5%8C%96</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>大眾文化</t>
+    <t>大众文化</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MTV_Generation</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%99%AE%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>波普藝術</t>
+    <t>波普艺术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pop_icon</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E8%AA%9E</t>
   </si>
   <si>
-    <t>流行語</t>
+    <t>流行语</t>
   </si>
 </sst>
 </file>
